--- a/Dokumente/Auf_DBEntwurf.xlsx
+++ b/Dokumente/Auf_DBEntwurf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2021-11-25" sheetId="2" r:id="rId1"/>
@@ -943,7 +943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1057,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>

--- a/Dokumente/Auf_DBEntwurf.xlsx
+++ b/Dokumente/Auf_DBEntwurf.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2021-11-25" sheetId="2" r:id="rId1"/>
     <sheet name="2021-11-18" sheetId="1" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="124">
   <si>
     <t>Erstellen Sie ein Datenbank-Tabelle, die Personendaten verspeichern soll.</t>
   </si>
@@ -397,6 +398,21 @@
   </si>
   <si>
     <t>Commit &amp; Rollback</t>
+  </si>
+  <si>
+    <t>Konten</t>
+  </si>
+  <si>
+    <t>Nr</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Betrag</t>
+  </si>
+  <si>
+    <t>Datum</t>
   </si>
 </sst>
 </file>
@@ -941,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C23"/>
+  <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,32 +969,35 @@
     <col min="3" max="3" width="30.5703125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>107</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="19"/>
       <c r="C5" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="19"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="19"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>109</v>
       </c>
@@ -986,19 +1005,19 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="19"/>
       <c r="C9" s="17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="19"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
         <v>113</v>
       </c>
@@ -1006,19 +1025,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
       <c r="C13" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
         <v>116</v>
       </c>
@@ -1057,7 +1076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
@@ -1559,4 +1578,61 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E7"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>222</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>-300</v>
+      </c>
+      <c r="E5" s="3">
+        <v>44530</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>SUM(D5:D6)</f>
+        <v>-300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>